--- a/SchedulingData/dynamic12/pso/scheduling1_9.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_9.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.48</v>
+        <v>53.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.312</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.48</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>108.9</v>
+        <v>48.3</v>
       </c>
       <c r="E3" t="n">
-        <v>23.88</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="D4" t="n">
-        <v>77.3</v>
+        <v>118.42</v>
       </c>
       <c r="E4" t="n">
-        <v>25.92</v>
+        <v>23.928</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>118.42</v>
       </c>
       <c r="D5" t="n">
-        <v>57.22</v>
+        <v>173.8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.448</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.22</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>108.98</v>
+        <v>49.12</v>
       </c>
       <c r="E6" t="n">
-        <v>22.912</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.12</v>
+        <v>60.4</v>
       </c>
       <c r="E7" t="n">
-        <v>25.788</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>108.9</v>
+        <v>49.12</v>
       </c>
       <c r="D8" t="n">
-        <v>153.62</v>
+        <v>84.02</v>
       </c>
       <c r="E8" t="n">
-        <v>21.048</v>
+        <v>23.428</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>108.98</v>
+        <v>173.8</v>
       </c>
       <c r="D9" t="n">
-        <v>165</v>
+        <v>230.9</v>
       </c>
       <c r="E9" t="n">
-        <v>19.44</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>77.3</v>
+        <v>84.02</v>
       </c>
       <c r="D10" t="n">
-        <v>135.7</v>
+        <v>153.02</v>
       </c>
       <c r="E10" t="n">
-        <v>23.2</v>
+        <v>21.108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>219.1</v>
+        <v>51.52</v>
       </c>
       <c r="E11" t="n">
-        <v>17.12</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="12">
@@ -656,207 +656,207 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153.62</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>218.4</v>
+        <v>41.2</v>
       </c>
       <c r="E12" t="n">
-        <v>17.2</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>135.7</v>
+        <v>153.02</v>
       </c>
       <c r="D13" t="n">
-        <v>182.76</v>
+        <v>198.86</v>
       </c>
       <c r="E13" t="n">
-        <v>20.604</v>
+        <v>18.144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>218.4</v>
+        <v>51.52</v>
       </c>
       <c r="D14" t="n">
-        <v>280.5</v>
+        <v>106.4</v>
       </c>
       <c r="E14" t="n">
-        <v>14.12</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>280.5</v>
+        <v>53.2</v>
       </c>
       <c r="D15" t="n">
-        <v>335.1</v>
+        <v>127.48</v>
       </c>
       <c r="E15" t="n">
-        <v>11.76</v>
+        <v>21.532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="D16" t="n">
-        <v>53.3</v>
+        <v>104.2</v>
       </c>
       <c r="E16" t="n">
-        <v>27.36</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49.12</v>
+        <v>127.48</v>
       </c>
       <c r="D17" t="n">
-        <v>102.12</v>
+        <v>174.64</v>
       </c>
       <c r="E17" t="n">
-        <v>21.628</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53.3</v>
+        <v>230.9</v>
       </c>
       <c r="D18" t="n">
-        <v>108.2</v>
+        <v>300.5</v>
       </c>
       <c r="E18" t="n">
-        <v>24.48</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>219.1</v>
+        <v>198.86</v>
       </c>
       <c r="D19" t="n">
-        <v>299</v>
+        <v>247.26</v>
       </c>
       <c r="E19" t="n">
-        <v>13.7</v>
+        <v>15.424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>102.12</v>
+        <v>106.4</v>
       </c>
       <c r="D20" t="n">
-        <v>175.56</v>
+        <v>158.74</v>
       </c>
       <c r="E20" t="n">
-        <v>17.884</v>
+        <v>19.556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>299</v>
+        <v>174.64</v>
       </c>
       <c r="D21" t="n">
-        <v>375.1</v>
+        <v>244.34</v>
       </c>
       <c r="E21" t="n">
-        <v>10.16</v>
+        <v>16.076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="D22" t="n">
-        <v>65.7</v>
+        <v>115.1</v>
       </c>
       <c r="E22" t="n">
-        <v>26.1</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>335.1</v>
+        <v>104.2</v>
       </c>
       <c r="D23" t="n">
-        <v>391.76</v>
+        <v>172.94</v>
       </c>
       <c r="E23" t="n">
-        <v>8.224</v>
+        <v>19.636</v>
       </c>
     </row>
     <row r="24">
@@ -884,117 +884,117 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>65.7</v>
+        <v>158.74</v>
       </c>
       <c r="D24" t="n">
-        <v>135.88</v>
+        <v>222.48</v>
       </c>
       <c r="E24" t="n">
-        <v>22.692</v>
+        <v>15.812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>182.76</v>
+        <v>172.94</v>
       </c>
       <c r="D25" t="n">
-        <v>262.46</v>
+        <v>208.98</v>
       </c>
       <c r="E25" t="n">
-        <v>17.244</v>
+        <v>16.672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>262.46</v>
+        <v>222.48</v>
       </c>
       <c r="D26" t="n">
-        <v>343.1</v>
+        <v>272.78</v>
       </c>
       <c r="E26" t="n">
-        <v>14.28</v>
+        <v>11.912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>391.76</v>
+        <v>244.34</v>
       </c>
       <c r="D27" t="n">
-        <v>452.3</v>
+        <v>290.88</v>
       </c>
       <c r="E27" t="n">
-        <v>5.26</v>
+        <v>13.052</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>135.88</v>
+        <v>247.26</v>
       </c>
       <c r="D28" t="n">
-        <v>205.36</v>
+        <v>296.88</v>
       </c>
       <c r="E28" t="n">
-        <v>18.844</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>205.36</v>
+        <v>300.5</v>
       </c>
       <c r="D29" t="n">
-        <v>257.7</v>
+        <v>364.3</v>
       </c>
       <c r="E29" t="n">
-        <v>15.72</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,70 +1002,70 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>108.2</v>
+        <v>290.88</v>
       </c>
       <c r="D30" t="n">
-        <v>151.52</v>
+        <v>354</v>
       </c>
       <c r="E30" t="n">
-        <v>21.288</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>375.1</v>
+        <v>115.1</v>
       </c>
       <c r="D31" t="n">
-        <v>419.14</v>
+        <v>181.66</v>
       </c>
       <c r="E31" t="n">
-        <v>7.376</v>
+        <v>19.224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>343.1</v>
+        <v>181.66</v>
       </c>
       <c r="D32" t="n">
-        <v>432.7</v>
+        <v>243.5</v>
       </c>
       <c r="E32" t="n">
-        <v>10.92</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>175.56</v>
+        <v>272.78</v>
       </c>
       <c r="D33" t="n">
-        <v>240.26</v>
+        <v>339.78</v>
       </c>
       <c r="E33" t="n">
-        <v>15.024</v>
+        <v>8.832000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>151.52</v>
+        <v>243.5</v>
       </c>
       <c r="D34" t="n">
-        <v>185.62</v>
+        <v>287.56</v>
       </c>
       <c r="E34" t="n">
-        <v>19.008</v>
+        <v>12.384</v>
       </c>
     </row>
     <row r="35">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>240.26</v>
+        <v>296.88</v>
       </c>
       <c r="D35" t="n">
-        <v>326.7</v>
+        <v>366.44</v>
       </c>
       <c r="E35" t="n">
-        <v>11.46</v>
+        <v>10.716</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,108 +1116,108 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>419.14</v>
+        <v>339.78</v>
       </c>
       <c r="D36" t="n">
-        <v>465.5</v>
+        <v>416.14</v>
       </c>
       <c r="E36" t="n">
-        <v>4.36</v>
+        <v>5.816</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>326.7</v>
+        <v>208.98</v>
       </c>
       <c r="D37" t="n">
-        <v>361.76</v>
+        <v>260.58</v>
       </c>
       <c r="E37" t="n">
-        <v>9.084</v>
+        <v>13.132</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>257.7</v>
+        <v>364.3</v>
       </c>
       <c r="D38" t="n">
-        <v>304.24</v>
+        <v>418.82</v>
       </c>
       <c r="E38" t="n">
-        <v>12.696</v>
+        <v>7.968</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>361.76</v>
+        <v>260.58</v>
       </c>
       <c r="D39" t="n">
-        <v>419.36</v>
+        <v>308.56</v>
       </c>
       <c r="E39" t="n">
-        <v>4.464</v>
+        <v>10.444</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>304.24</v>
+        <v>366.44</v>
       </c>
       <c r="D40" t="n">
-        <v>343.96</v>
+        <v>408.2</v>
       </c>
       <c r="E40" t="n">
-        <v>10.364</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>185.62</v>
+        <v>308.56</v>
       </c>
       <c r="D41" t="n">
-        <v>239.48</v>
+        <v>345.38</v>
       </c>
       <c r="E41" t="n">
-        <v>15.732</v>
+        <v>7.892</v>
       </c>
     </row>
   </sheetData>
